--- a/VerimadenciligiCalismaKonulari.xlsx
+++ b/VerimadenciligiCalismaKonulari.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ders Notlari\veriMadenciligi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C2EEB0-6354-4479-B8A1-98DC86CDA79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{AE38BE5A-A14C-4CFA-9786-6816770A94D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>Konu</t>
   </si>
@@ -235,13 +229,65 @@
   </si>
   <si>
     <t>Sıra</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Konuyu Veren Moderatö</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>Konuyu Alan Öğrenci</t>
+  </si>
+  <si>
+    <t>Neslihan ŞAHİN</t>
+  </si>
+  <si>
+    <t>Seda Nur Polater</t>
+  </si>
+  <si>
+    <t>Burak Can KÖRPINAR</t>
+  </si>
+  <si>
+    <t>Mehmet Ali YILMAZ</t>
+  </si>
+  <si>
+    <t>Hasan ÖREN</t>
+  </si>
+  <si>
+    <t>Mustafa Can AKDEMİR</t>
+  </si>
+  <si>
+    <t>Zarbali ZARBALİYEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +316,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,6 +486,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,7 +583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -526,7 +635,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -720,35 +829,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F0EB0B-0D1E-45D7-955E-47A0785D3BED}">
-  <dimension ref="A1:B70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -756,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -764,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -772,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -780,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -788,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -796,7 +917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -804,15 +925,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -820,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -828,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -836,15 +966,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -852,7 +991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -860,7 +999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -868,7 +1007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -876,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -884,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -892,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -900,7 +1039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -908,7 +1047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -916,7 +1055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -924,7 +1063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -932,7 +1071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -940,7 +1079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -948,15 +1087,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -964,7 +1112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -972,7 +1120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -980,23 +1128,33 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1004,7 +1162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1012,7 +1170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1020,7 +1178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1028,7 +1186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1036,7 +1194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1044,7 +1202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1052,7 +1210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1060,7 +1218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1068,7 +1226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1076,7 +1234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1084,7 +1242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1092,7 +1250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1100,7 +1258,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1108,7 +1266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1116,7 +1274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1124,7 +1282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1132,7 +1290,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1140,23 +1298,41 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
+    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="C51" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -1164,7 +1340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1172,7 +1348,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -1180,7 +1356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1188,7 +1364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -1196,7 +1372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -1204,7 +1380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -1212,7 +1388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -1220,7 +1396,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -1228,7 +1404,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -1236,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -1244,7 +1420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -1252,7 +1428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -1260,7 +1436,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -1268,7 +1444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -1276,7 +1452,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -1284,7 +1460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -1292,8 +1468,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerimadenciligiCalismaKonulari.xlsx
+++ b/VerimadenciligiCalismaKonulari.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Konu</t>
   </si>
@@ -281,6 +281,30 @@
   </si>
   <si>
     <t>Zarbali ZARBALİYEV</t>
+  </si>
+  <si>
+    <t>Batuhan ÇELEBİ</t>
+  </si>
+  <si>
+    <t>İrfan KUTBAY</t>
+  </si>
+  <si>
+    <t>Ömer SARI</t>
+  </si>
+  <si>
+    <t>Zeynep İrem Kesler</t>
+  </si>
+  <si>
+    <t>Hasan ÖZ</t>
+  </si>
+  <si>
+    <t>Gamze Meryem Kaya</t>
+  </si>
+  <si>
+    <t>Aleyna KOCAMAN</t>
+  </si>
+  <si>
+    <t>Emas Ragıb</t>
   </si>
 </sst>
 </file>
@@ -460,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -520,7 +544,10 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -829,7 +856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -840,7 +867,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,20 +920,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="C5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="18" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="15">
+        <v>44932</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1095,10 +1140,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E27" s="15">
         <v>44932</v>
@@ -1112,13 +1157,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
+    <row r="29" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -1128,14 +1175,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+    <row r="31" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="15">
+        <v>44932</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
@@ -1154,7 +1209,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1162,7 +1217,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1170,7 +1225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1178,7 +1233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1186,7 +1241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1194,7 +1249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1202,7 +1257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1210,15 +1265,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1226,7 +1290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1234,7 +1298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1242,7 +1306,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1250,7 +1314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1258,7 +1322,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1266,7 +1330,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1274,7 +1338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1356,12 +1420,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+    <row r="56" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="18" t="s">
         <v>52</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="15">
+        <v>44932</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1380,12 +1453,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+    <row r="59" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="18" t="s">
         <v>55</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="15">
+        <v>44932</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">

--- a/VerimadenciligiCalismaKonulari.xlsx
+++ b/VerimadenciligiCalismaKonulari.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>Konu</t>
   </si>
@@ -283,12 +283,6 @@
     <t>Zarbali ZARBALİYEV</t>
   </si>
   <si>
-    <t>Batuhan ÇELEBİ</t>
-  </si>
-  <si>
-    <t>İrfan KUTBAY</t>
-  </si>
-  <si>
     <t>Ömer SARI</t>
   </si>
   <si>
@@ -305,6 +299,9 @@
   </si>
   <si>
     <t>Emas Ragıb</t>
+  </si>
+  <si>
+    <t>Caner KARACA</t>
   </si>
 </sst>
 </file>
@@ -484,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,10 +541,7 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -866,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -945,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>71</v>
@@ -962,12 +956,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="18" t="s">
         <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="15">
+        <v>44932</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -1140,10 +1143,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E27" s="15">
         <v>44932</v>
@@ -1157,15 +1160,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -1175,22 +1176,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+    <row r="31" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="15">
-        <v>44932</v>
-      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
@@ -1209,7 +1203,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1217,7 +1211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1225,7 +1219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1233,7 +1227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1241,7 +1235,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1257,7 +1251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1265,24 +1259,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="15">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1290,7 +1275,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1298,7 +1283,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1306,7 +1291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1314,7 +1299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1322,7 +1307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1330,7 +1315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1338,7 +1323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1428,10 +1413,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E56" s="15">
         <v>44932</v>
@@ -1461,10 +1446,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E59" s="15">
         <v>44932</v>

--- a/VerimadenciligiCalismaKonulari.xlsx
+++ b/VerimadenciligiCalismaKonulari.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ONURSAL\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24FB67B2-788B-4B2B-9043-8436856DBEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>Konu</t>
   </si>
@@ -316,22 +319,19 @@
     <t>Muhammed KADO</t>
   </si>
   <si>
-    <t>Onursal TOPARLAK</t>
-  </si>
-  <si>
-    <t>Onursal Toparlak</t>
-  </si>
-  <si>
-    <t>Fatma Nur ŞAHİN</t>
-  </si>
-  <si>
-    <t>Firdevs NAMAL</t>
+    <t>Enes YAŞAR</t>
+  </si>
+  <si>
+    <t>Eda TORLAK</t>
+  </si>
+  <si>
+    <t>Hanın NİNAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,7 +558,14 @@
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -867,30 +874,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="74.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="74.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
@@ -907,7 +914,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -915,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -923,15 +930,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -948,7 +964,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -965,7 +981,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -982,7 +998,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -999,7 +1015,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1016,7 +1032,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1024,7 +1040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1032,7 +1048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1040,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1073,7 +1089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -1092,13 +1108,13 @@
         <v>89</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="20">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="E17" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1106,7 +1122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1114,7 +1130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -1139,7 +1155,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1147,7 +1163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1155,7 +1171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1163,7 +1179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1171,7 +1187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1179,7 +1195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -1196,7 +1212,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1204,7 +1220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1212,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1220,16 +1236,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+    <row r="31" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -1246,7 +1263,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1254,7 +1271,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1262,7 +1279,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1270,7 +1287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1278,7 +1295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1286,7 +1303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1294,7 +1311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1302,7 +1319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1310,7 +1327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1318,7 +1335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1326,7 +1343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -1343,7 +1360,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1351,7 +1368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1359,7 +1376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1375,24 +1392,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="20">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -1409,24 +1417,15 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="20">
-        <v>44932</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1476,15 +1475,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6">
+    <row r="55" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="15">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -1509,7 +1517,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -1551,7 +1559,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -1575,7 +1583,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
